--- a/Outputs/PtX_demand_LU.xlsx
+++ b/Outputs/PtX_demand_LU.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>5.283656111244014e-05</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2.316635748153443e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.459863587056758e-05</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,23 +527,17 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>5.283656111244014e-05</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2.316635748153443e-10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.459863587056758e-05</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -556,7 +556,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -575,7 +575,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -583,18 +583,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0002070302133370287</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.616663178346188e-05</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>4.303970734896349e-06</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,24 +608,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0002070302133370287</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.616663178346188e-05</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>4.303970734896349e-06</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -628,17 +628,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.0009583835277984215</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.625438470382552e-06</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0008562968738091</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.332508913526928e-06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.782381275225177e-05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -646,28 +656,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.0009583835277984215</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.625438470382552e-06</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.0008830572976137143</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0008562968738091</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.332508913526928e-06</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.782381275225177e-05</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -676,7 +678,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.0008830572976137143</v>
+        <v>8.694738566017942e-05</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -688,7 +690,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -697,19 +699,31 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>8.694738566017942e-05</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.001177034896610922</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001027386720694324</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.625438470382552e-06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.316635748153443e-10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.000885199480414564</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.332508913526928e-06</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.782381275225177e-05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -718,17 +732,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0002538681704911405</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1.939279995423251e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.554840186828434e-05</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -737,23 +757,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0002538681704911405</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1.939279995423251e-08</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.554840186828434e-05</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -772,7 +786,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -781,17 +795,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>9.296301033643273e-11</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1.094815672177908e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -799,14 +817,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.0008090434386974429</v>
+      </c>
       <c r="F16" t="n">
-        <v>9.296301033643273e-11</v>
+        <v>1.988819906160648e-05</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>1.094815672177908e-11</v>
+        <v>7.533376086321518e-06</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -814,7 +834,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -822,24 +842,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.0008090434386974429</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.988819906160648e-05</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>7.533376086321518e-06</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -848,17 +862,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0004169401728129474</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.170392762475309e-06</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0005640913233956999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.048457469194271e-06</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.340641662853338e-05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -866,28 +890,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0004169401728129474</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9.170392762475309e-06</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.0009767952413055328</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0005640913233956999</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.048457469194271e-06</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.340641662853338e-05</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -896,7 +912,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.0009767952413055328</v>
+        <v>0.0003568693389818933</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -908,7 +924,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -917,19 +933,31 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.0003568693389818933</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.002142708018984869</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0006906966353287048</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.170392762475309e-06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.939279995423251e-08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0006071731122984624</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.048457469194271e-06</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.340641662853338e-05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -938,17 +966,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0003521444160408327</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>3.286923386352513e-08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.661741231548529e-05</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -957,23 +991,17 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0003521444160408327</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>3.286923386352513e-08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.661741231548529e-05</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -992,7 +1020,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1001,17 +1029,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>8.70044268609369e-10</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>2.68551980919303e-10</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1019,14 +1051,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.001955551764325928</v>
+      </c>
       <c r="F26" t="n">
-        <v>8.70044268609369e-10</v>
+        <v>3.406830721744977e-06</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>2.68551980919303e-10</v>
+        <v>2.173206784143539e-06</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1034,7 +1068,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1042,24 +1076,28 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.001955551764325928</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>3.406830721744977e-06</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>2.22160304401638e-12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.376959998382159e-13</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>2.173206784143539e-06</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>9.438632566327578e-12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.772717958064315e-14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.94304446365687e-12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1069,26 +1107,26 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2.22160304401638e-12</v>
+        <v>4.141827709932304e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>3.376959998382159e-13</v>
+        <v>1.63858818076062e-05</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>9.438632566327578e-12</v>
+        <v>0.000145301372805227</v>
       </c>
       <c r="J28" t="n">
-        <v>2.772717958064315e-14</v>
+        <v>5.206957399277256e-06</v>
       </c>
       <c r="K28" t="n">
-        <v>3.94304446365687e-12</v>
+        <v>3.178818888705797e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1096,28 +1134,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>4.141827709932304e-05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.63858818076062e-05</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.001096317097920804</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.000145301372805227</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.206957399277256e-06</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.178818888705797e-05</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1126,7 +1156,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.001096317097920804</v>
+        <v>0.0009155415375954781</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1138,7 +1168,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1147,14 +1177,26 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.0009155415375954781</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.003967410399842211</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0003969703961277724</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.63858821453022e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.286923386352513e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0002040922698954693</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.206957427004436e-06</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.178819283010243e-05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_LU.xlsx
+++ b/Outputs/PtX_demand_LU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -609,17 +609,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0002034442821474712</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1.806983956695509e-05</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -628,27 +632,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.0009583835277984215</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.625438470382552e-06</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0008562968738091</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.332508913526928e-06</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.782381275225177e-05</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -656,20 +650,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.0008830572976137143</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.0009583835277984215</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.625438470382552e-06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0006338538975374</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0008562968738091</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.332508913526928e-06</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.782381275225177e-05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -677,20 +681,30 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>8.694738566017942e-05</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.009451835382458173</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.961831351454017e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0057930828534679</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.005393546397117</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.017168346457447e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0001274279191674</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -699,75 +713,73 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.001177034896610922</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001027386720694324</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.625438470382552e-06</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.316635748153443e-10</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.000885199480414564</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.332508913526928e-06</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.782381275225177e-05</v>
-      </c>
+        <v>0.0008830572976137143</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0002538681704911405</v>
-      </c>
+      <c r="E12" t="n">
+        <v>8.694738566017942e-05</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1.939279995423251e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.554840186828434e-05</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0.001177034896610922</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01068266638529997</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.524375198492272e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.006426936982668875</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.006296815717098519</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.35041923781014e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0001452517319196518</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -776,17 +788,23 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0002538681704911405</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1.939279995423251e-08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.554840186828434e-05</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -795,21 +813,17 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>9.296301033643273e-11</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1.094815672177908e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -817,24 +831,18 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.0008090434386974429</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.988819906160648e-05</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>7.533376086321518e-06</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -843,17 +851,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>9.296301033643273e-11</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.094815672177908e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -861,28 +873,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.0008090434386974429</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.0004169401728129474</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9.170392762475309e-06</v>
-      </c>
+        <v>1.988819906160648e-05</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0005640913233956999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.048457469194271e-06</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.340641662853338e-05</v>
-      </c>
+        <v>7.533376086321518e-06</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -890,20 +898,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.0009767952413055328</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0001102345306729826</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1.913760421229235e-05</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -911,9 +921,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.0003568693389818933</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -924,7 +932,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -932,20 +940,18 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0.002142708018984869</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.0006906966353287048</v>
+        <v>0.0004169401728129474</v>
       </c>
       <c r="G21" t="n">
         <v>9.170392762475309e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>1.939279995423251e-08</v>
+        <v>0.0007716265368593</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0006071731122984624</v>
+        <v>0.0005640913233956999</v>
       </c>
       <c r="J21" t="n">
         <v>4.048457469194271e-06</v>
@@ -957,40 +963,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0003521444160408327</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.002578360594290656</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.259188969353732e-05</v>
+      </c>
       <c r="H22" t="n">
-        <v>3.286923386352513e-08</v>
+        <v>0.0054617946555969</v>
       </c>
       <c r="I22" t="n">
-        <v>5.661741231548529e-05</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0024037440514657</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.79005644140739e-05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0001124321287735</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.0009767952413055328</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1001,15 +1015,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.0003568693389818933</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1020,30 +1036,40 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.002142708018984869</v>
+      </c>
       <c r="F25" t="n">
-        <v>8.70044268609369e-10</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.003379291760292343</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.176228245601263e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.006233440585256155</v>
+      </c>
       <c r="I25" t="n">
-        <v>2.68551980919303e-10</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.003030054767976455</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.194902188326818e-05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0001358385454020334</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1051,16 +1077,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.001955551764325928</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3.406830721744977e-06</v>
+        <v>0.0003521444160408327</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>3.286923386352513e-08</v>
+      </c>
       <c r="I26" t="n">
-        <v>2.173206784143539e-06</v>
+        <v>5.661741231548529e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1068,7 +1094,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1077,27 +1103,17 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>2.22160304401638e-12</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.376959998382159e-13</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>9.438632566327578e-12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.772717958064315e-14</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.94304446365687e-12</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1106,27 +1122,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>4.141827709932304e-05</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.63858818076062e-05</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.000145301372805227</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.206957399277256e-06</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.178818888705797e-05</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1134,20 +1140,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.001096317097920804</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>8.70044268609369e-10</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>2.68551980919303e-10</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1156,19 +1164,23 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0009155415375954781</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.001955551764325928</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.406830721744977e-06</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>2.173206784143539e-06</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1176,26 +1188,184 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>6.883362693042184e-06</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>7.190442366028786e-06</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2.22160304401638e-12</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.376959998382159e-13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.97286737647877e-11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9.438632566327578e-12</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.772717958064315e-14</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.94304446365687e-12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>4.141827709932304e-05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.63858818076062e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0010106645142242</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.000145301372805227</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.206957399277256e-06</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.178818888705797e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0001449010494921588</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.841608072198006e-05</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0049531446154624</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0004293438138343</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.54079268861911e-05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9.227971885962604e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.001096317097920804</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.0009155415375954781</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>0.003967410399842211</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.0003969703961277724</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.63858821453022e-05</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.286923386352513e-08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0002040922698954693</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.206957427004436e-06</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.178819283010243e-05</v>
+      <c r="F37" t="n">
+        <v>0.0005487548083129735</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.480196286728226e-05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.005963842028649137</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.000640626526095798</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.061488431319554e-05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0001240679116897285</v>
       </c>
     </row>
   </sheetData>
